--- a/Data/AllResults_LINEZOLID 600MG_300ML.xlsx
+++ b/Data/AllResults_LINEZOLID 600MG_300ML.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="192">
   <si>
     <t>Molecule</t>
   </si>
@@ -820,16 +820,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -841,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -852,16 +852,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -873,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -980,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -998,10 +998,10 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
@@ -1012,16 +1012,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -1030,10 +1030,10 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -1332,16 +1332,16 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1350,10 +1350,10 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
@@ -1364,16 +1364,16 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -1382,10 +1382,10 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
